--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2431.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2431.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.024625751139733</v>
+        <v>0.5706239938735962</v>
       </c>
       <c r="B1">
-        <v>2.080061999305958</v>
+        <v>2.78913950920105</v>
       </c>
       <c r="C1">
-        <v>8.950571425731907</v>
+        <v>3.174113750457764</v>
       </c>
       <c r="D1">
-        <v>2.466088515309829</v>
+        <v>3.79065728187561</v>
       </c>
       <c r="E1">
-        <v>0.9920967070952168</v>
+        <v>1.121853590011597</v>
       </c>
     </row>
   </sheetData>
